--- a/Data_preparation/datasets/final_data/Palladyne_AI_Corp.xlsx
+++ b/Data_preparation/datasets/final_data/Palladyne_AI_Corp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,54 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
 </sst>
 </file>
@@ -700,22 +652,22 @@
         <v>43830</v>
       </c>
       <c r="D2">
-        <v>222.8461507933775</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="E2">
-        <v>219.044937133789</v>
+        <v>46.38000106811523</v>
       </c>
       <c r="F2">
-        <v>252.7807083626373</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="G2">
-        <v>203.3649307879864</v>
+        <v>43.86000061035156</v>
       </c>
       <c r="H2">
-        <v>80995217</v>
+        <v>41948874</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-9195000</v>
@@ -741,22 +693,22 @@
         <v>43921</v>
       </c>
       <c r="D3">
-        <v>12.41129859768217</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="E3">
-        <v>16.23237037658691</v>
+        <v>46.38000106811523</v>
       </c>
       <c r="F3">
-        <v>17.16704825563687</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="G3">
-        <v>12.05887897968325</v>
+        <v>43.86000061035156</v>
       </c>
       <c r="H3">
-        <v>1299391231</v>
+        <v>41948874</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>2175000</v>
@@ -818,22 +770,22 @@
         <v>44012</v>
       </c>
       <c r="D4">
-        <v>970.3393129824782</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="E4">
-        <v>1088.628295898438</v>
+        <v>46.38000106811523</v>
       </c>
       <c r="F4">
-        <v>1118.200541627427</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="G4">
-        <v>950.0083940437976</v>
+        <v>43.86000061035156</v>
       </c>
       <c r="H4">
-        <v>1333460157</v>
+        <v>41948874</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>1708000</v>
@@ -895,22 +847,22 @@
         <v>44104</v>
       </c>
       <c r="D5">
-        <v>12.7733873356874</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="E5">
-        <v>15.52035236358643</v>
+        <v>46.38000106811523</v>
       </c>
       <c r="F5">
-        <v>17.30587870681586</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="G5">
-        <v>12.68182262753309</v>
+        <v>43.86000061035156</v>
       </c>
       <c r="H5">
-        <v>4500000193</v>
+        <v>41948874</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>5000</v>
@@ -984,22 +936,22 @@
         <v>44196</v>
       </c>
       <c r="D6">
-        <v>32.50755730601569</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="E6">
-        <v>31.25653076171875</v>
+        <v>46.38000106811523</v>
       </c>
       <c r="F6">
-        <v>32.99459606093095</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="G6">
-        <v>30.77904021483708</v>
+        <v>43.86000061035156</v>
       </c>
       <c r="H6">
-        <v>219937482</v>
+        <v>41948874</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>-31270000</v>
@@ -1079,22 +1031,22 @@
         <v>44286</v>
       </c>
       <c r="D7">
-        <v>2516.34996159507</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="E7">
-        <v>2790.17041015625</v>
+        <v>46.38000106811523</v>
       </c>
       <c r="F7">
-        <v>2807.159270103477</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="G7">
-        <v>2503.838146397838</v>
+        <v>43.86000061035156</v>
       </c>
       <c r="H7">
-        <v>913159452</v>
+        <v>41948874</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>338100000</v>
@@ -1195,22 +1147,22 @@
         <v>44377</v>
       </c>
       <c r="D8">
-        <v>40.06459571156605</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="E8">
-        <v>40.04537963867188</v>
+        <v>46.38000106811523</v>
       </c>
       <c r="F8">
-        <v>40.5353766696543</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="G8">
-        <v>36.25990124070713</v>
+        <v>43.86000061035156</v>
       </c>
       <c r="H8">
-        <v>219937482</v>
+        <v>41948874</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>344310000</v>
@@ -1311,22 +1263,22 @@
         <v>44469</v>
       </c>
       <c r="D9">
-        <v>51.72000122070312</v>
+        <v>46.5</v>
       </c>
       <c r="E9">
-        <v>45.22999954223633</v>
+        <v>42.41999816894531</v>
       </c>
       <c r="F9">
-        <v>53.2400016784668</v>
+        <v>47.40000152587891</v>
       </c>
       <c r="G9">
-        <v>43.54000091552734</v>
+        <v>35.70000076293945</v>
       </c>
       <c r="H9">
-        <v>134598631</v>
+        <v>41948874</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>1103213982</v>
@@ -1427,22 +1379,22 @@
         <v>44561</v>
       </c>
       <c r="D10">
-        <v>98.06110899770088</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="E10">
-        <v>84.43734741210938</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="F10">
-        <v>98.06110899770088</v>
+        <v>59.93999862670898</v>
       </c>
       <c r="G10">
-        <v>80.56356001156674</v>
+        <v>31.79999923706055</v>
       </c>
       <c r="H10">
-        <v>229140423</v>
+        <v>41948874</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>1425630824</v>
@@ -1540,22 +1492,22 @@
         <v>44651</v>
       </c>
       <c r="D11">
-        <v>564.8420934999623</v>
+        <v>39.77999877929688</v>
       </c>
       <c r="E11">
-        <v>567.5840454101562</v>
+        <v>28.20000076293945</v>
       </c>
       <c r="F11">
-        <v>568.4980293802209</v>
+        <v>42.54000091552734</v>
       </c>
       <c r="G11">
-        <v>487.1534560444658</v>
+        <v>25.86599922180176</v>
       </c>
       <c r="H11">
-        <v>275900103</v>
+        <v>41948874</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>915855676</v>
@@ -1653,22 +1605,22 @@
         <v>44742</v>
       </c>
       <c r="D12">
-        <v>990.9535599144536</v>
+        <v>15.89999961853027</v>
       </c>
       <c r="E12">
-        <v>932.830322265625</v>
+        <v>20.10000038146973</v>
       </c>
       <c r="F12">
-        <v>1065.275076908038</v>
+        <v>20.63999938964844</v>
       </c>
       <c r="G12">
-        <v>932.830322265625</v>
+        <v>15.42000007629394</v>
       </c>
       <c r="H12">
-        <v>1333460157</v>
+        <v>41948874</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>409108000</v>
@@ -1766,22 +1718,22 @@
         <v>44834</v>
       </c>
       <c r="D13">
-        <v>3829.951036061672</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="E13">
-        <v>3718.19677734375</v>
+        <v>12.11999988555908</v>
       </c>
       <c r="F13">
-        <v>4026.941593801738</v>
+        <v>14.76000022888184</v>
       </c>
       <c r="G13">
-        <v>3570.453859038701</v>
+        <v>10.38000011444092</v>
       </c>
       <c r="H13">
-        <v>933160187</v>
+        <v>41948874</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>343656000</v>
@@ -1879,22 +1831,22 @@
         <v>44926</v>
       </c>
       <c r="D14">
-        <v>17.67499923706055</v>
+        <v>3.420000076293945</v>
       </c>
       <c r="E14">
-        <v>19.1200008392334</v>
+        <v>3.599999904632568</v>
       </c>
       <c r="F14">
-        <v>19.76000022888184</v>
+        <v>5.165999889373779</v>
       </c>
       <c r="G14">
-        <v>17.08499908447266</v>
+        <v>3.059999942779541</v>
       </c>
       <c r="H14">
-        <v>795535712</v>
+        <v>41948874</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>86833110</v>
@@ -1995,22 +1947,22 @@
         <v>45016</v>
       </c>
       <c r="D15">
-        <v>4646.163088703966</v>
+        <v>2.940000057220459</v>
       </c>
       <c r="E15">
-        <v>4397.0390625</v>
+        <v>2.400000095367432</v>
       </c>
       <c r="F15">
-        <v>4647.12125803552</v>
+        <v>3.180000066757202</v>
       </c>
       <c r="G15">
-        <v>4224.568582820331</v>
+        <v>2.124000072479248</v>
       </c>
       <c r="H15">
-        <v>933160187</v>
+        <v>41948874</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>73246210</v>
@@ -2111,22 +2063,22 @@
         <v>45107</v>
       </c>
       <c r="D16">
-        <v>299.8867087280755</v>
+        <v>1.925999999046326</v>
       </c>
       <c r="E16">
-        <v>279.6763610839844</v>
+        <v>1.799999952316284</v>
       </c>
       <c r="F16">
-        <v>311.3327623979251</v>
+        <v>2.009999990463257</v>
       </c>
       <c r="G16">
-        <v>274.7053735580706</v>
+        <v>1.429999947547913</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>41948874</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>49607450</v>
@@ -2227,22 +2179,22 @@
         <v>45199</v>
       </c>
       <c r="D17">
-        <v>1366.269412157012</v>
+        <v>0.8700000047683716</v>
       </c>
       <c r="E17">
-        <v>1400.426147460938</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="F17">
-        <v>1722.475366040805</v>
+        <v>0.9509999752044678</v>
       </c>
       <c r="G17">
-        <v>1356.510344927319</v>
+        <v>0.3980000019073486</v>
       </c>
       <c r="H17">
-        <v>134011000</v>
+        <v>41948874</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>22048680</v>
@@ -2343,22 +2295,22 @@
         <v>45291</v>
       </c>
       <c r="D18">
-        <v>124.5980016318655</v>
+        <v>0.746999979019165</v>
       </c>
       <c r="E18">
-        <v>132.1493988037109</v>
+        <v>0.5400000214576721</v>
       </c>
       <c r="F18">
-        <v>136.1187273141222</v>
+        <v>0.7490000128746033</v>
       </c>
       <c r="G18">
-        <v>122.5649354352075</v>
+        <v>0.5049999952316284</v>
       </c>
       <c r="H18">
-        <v>229140423</v>
+        <v>41948874</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>18681670</v>
@@ -2459,22 +2411,22 @@
         <v>45382</v>
       </c>
       <c r="D19">
-        <v>4156.728619089413</v>
+        <v>1.879999995231628</v>
       </c>
       <c r="E19">
-        <v>4553.76318359375</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="F19">
-        <v>5096.40944657156</v>
+        <v>3.138999938964844</v>
       </c>
       <c r="G19">
-        <v>3750.957352676668</v>
+        <v>1.309999942779541</v>
       </c>
       <c r="H19">
-        <v>175134528</v>
+        <v>41948874</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>46879000</v>
@@ -2575,22 +2527,22 @@
         <v>45473</v>
       </c>
       <c r="D20">
-        <v>2890.935410112718</v>
+        <v>1.620000004768372</v>
       </c>
       <c r="E20">
-        <v>2691.009033203125</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>3014.889763796666</v>
+        <v>2.440000057220459</v>
       </c>
       <c r="G20">
-        <v>2519.072349060875</v>
+        <v>1.490000009536743</v>
       </c>
       <c r="H20">
-        <v>104878138</v>
+        <v>41948874</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>42560000</v>
@@ -2691,22 +2643,22 @@
         <v>45565</v>
       </c>
       <c r="D21">
-        <v>31.23959479848472</v>
+        <v>1.769999980926514</v>
       </c>
       <c r="E21">
-        <v>28.76222801208496</v>
+        <v>2.049999952316284</v>
       </c>
       <c r="F21">
-        <v>31.50219696309808</v>
+        <v>3.5</v>
       </c>
       <c r="G21">
-        <v>28.63340577082776</v>
+        <v>1.677000045776367</v>
       </c>
       <c r="H21">
-        <v>1299391231</v>
+        <v>41948874</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>47972000</v>
@@ -2807,22 +2759,22 @@
         <v>45657</v>
       </c>
       <c r="D22">
-        <v>2476.994723535176</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="E22">
-        <v>2384.00341796875</v>
+        <v>8.510000228881836</v>
       </c>
       <c r="F22">
-        <v>2758.415779854624</v>
+        <v>12.60000038146973</v>
       </c>
       <c r="G22">
-        <v>2325.761495008725</v>
+        <v>6.590000152587891</v>
       </c>
       <c r="H22">
-        <v>175134528</v>
+        <v>41948874</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>369479136</v>
@@ -2923,22 +2875,22 @@
         <v>45747</v>
       </c>
       <c r="D23">
-        <v>3590.70430246099</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="E23">
-        <v>3714.694091796875</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="F23">
-        <v>3714.694091796875</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="G23">
-        <v>3048.748932944461</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="H23">
-        <v>913159452</v>
+        <v>41948874</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>207091842</v>
@@ -3039,22 +2991,22 @@
         <v>45838</v>
       </c>
       <c r="D24">
-        <v>2937</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="E24">
-        <v>3025</v>
+        <v>8.180000305175781</v>
       </c>
       <c r="F24">
-        <v>3125</v>
+        <v>13</v>
       </c>
       <c r="G24">
-        <v>2890</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="H24">
-        <v>52985470</v>
+        <v>41948874</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>309279144</v>
